--- a/Tabele1.xlsx
+++ b/Tabele1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>α=1%</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>α=10%</t>
   </si>
+  <si>
+    <t>n \ r</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,11 +121,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,17 +165,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,70 +515,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:L25"/>
+  <dimension ref="A6:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -547,7 +619,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -585,7 +657,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -623,7 +695,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -661,7 +733,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -699,7 +771,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -737,7 +809,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="1">
@@ -775,7 +847,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="1">
@@ -813,7 +885,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="1">
@@ -851,7 +923,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="1">
@@ -889,7 +961,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="1">
@@ -927,7 +999,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="1">
@@ -965,7 +1037,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1003,7 +1075,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1041,7 +1113,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>25</v>
       </c>
       <c r="B22" s="1">
@@ -1079,7 +1151,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>30</v>
       </c>
       <c r="B23" s="1">
@@ -1117,7 +1189,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>40</v>
       </c>
       <c r="B24" s="1">
@@ -1155,7 +1227,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>60</v>
       </c>
       <c r="B25" s="1">
@@ -1191,6 +1263,9 @@
       <c r="L25" s="1">
         <v>1.137</v>
       </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1206,67 +1281,70 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>9</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1304,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1342,7 +1420,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1380,7 +1458,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1418,7 +1496,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1456,7 +1534,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1494,7 +1572,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1532,7 +1610,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1570,7 +1648,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1608,7 +1686,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -1646,7 +1724,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>14</v>
       </c>
       <c r="B13" s="1">
@@ -1684,7 +1762,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>16</v>
       </c>
       <c r="B14" s="1">
@@ -1722,7 +1800,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>18</v>
       </c>
       <c r="B15" s="1">
@@ -1760,7 +1838,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>20</v>
       </c>
       <c r="B16" s="1">
@@ -1798,7 +1876,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>25</v>
       </c>
       <c r="B17" s="1">
@@ -1836,7 +1914,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>30</v>
       </c>
       <c r="B18" s="1">
@@ -1874,7 +1952,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>40</v>
       </c>
       <c r="B19" s="1">
@@ -1912,7 +1990,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>60</v>
       </c>
       <c r="B20" s="1">
@@ -1954,6 +2032,7 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1961,68 +2040,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>9</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -2060,7 +2142,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -2098,7 +2180,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -2136,7 +2218,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -2174,7 +2256,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -2212,7 +2294,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -2250,7 +2332,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -2288,7 +2370,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -2326,7 +2408,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -2364,7 +2446,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -2402,7 +2484,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>14</v>
       </c>
       <c r="B13" s="1">
@@ -2440,7 +2522,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>16</v>
       </c>
       <c r="B14" s="1">
@@ -2478,7 +2560,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>18</v>
       </c>
       <c r="B15" s="1">
@@ -2516,7 +2598,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>20</v>
       </c>
       <c r="B16" s="1">
@@ -2554,7 +2636,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>25</v>
       </c>
       <c r="B17" s="1">
@@ -2592,7 +2674,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>30</v>
       </c>
       <c r="B18" s="1">
@@ -2630,7 +2712,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>40</v>
       </c>
       <c r="B19" s="1">
@@ -2668,7 +2750,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>60</v>
       </c>
       <c r="B20" s="1">
@@ -2710,5 +2792,6 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>